--- a/xlsx/北大西洋公约组织_intext.xlsx
+++ b/xlsx/北大西洋公约组织_intext.xlsx
@@ -29,7 +29,7 @@
     <t>军事同盟</t>
   </si>
   <si>
-    <t>政策_政策_美國_北大西洋公约组织</t>
+    <t>体育运动_体育运动_欧洲议会_北大西洋公约组织</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E5%88%A9%E6%99%82</t>
